--- a/dist/document/dest/2020/10/doctors/83.xlsx
+++ b/dist/document/dest/2020/10/doctors/83.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>93940</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
-        <v>96600</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>167</v>
       </c>
-      <c r="C4" s="1">
-        <v>576150</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>3892</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
-        <v>323400</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
-        <v>515200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
-        <v>209440</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>230</v>
       </c>
-      <c r="C9" s="1">
-        <v>1897500</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>392</v>
       </c>
-      <c r="C10" s="1">
-        <v>2802800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>126</v>
       </c>
-      <c r="C11" s="1">
-        <v>803880</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>182</v>
       </c>
-      <c r="C12" s="1">
-        <v>575120</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>294</v>
       </c>
-      <c r="C13" s="1">
-        <v>2005080</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>42</v>
       </c>
-      <c r="C14" s="1">
-        <v>725340</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>138600</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>208</v>
       </c>
-      <c r="C16" s="1">
-        <v>1361360</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
-        <v>771100</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
-        <v>5145</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>124</v>
       </c>
-      <c r="C19" s="1">
-        <v>135160</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>84</v>
       </c>
-      <c r="C20" s="1">
-        <v>280140</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>56</v>
       </c>
-      <c r="C21" s="1">
-        <v>141680</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
-        <v>40250</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>316</v>
       </c>
-      <c r="C23" s="1">
-        <v>2085600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>40</v>
       </c>
-      <c r="C24" s="1">
-        <v>140000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
-        <v>431200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>117</v>
       </c>
-      <c r="C26" s="1">
-        <v>1866150</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>14</v>
       </c>
-      <c r="C27" s="1">
-        <v>67620</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
-        <v>5740</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>51380</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>56</v>
       </c>
-      <c r="C30" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>466</v>
       </c>
-      <c r="C31" s="1">
-        <v>1661290</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>246</v>
       </c>
-      <c r="C32" s="1">
-        <v>933570</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>84</v>
       </c>
-      <c r="C33" s="1">
-        <v>1034880</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>36</v>
       </c>
-      <c r="C34" s="1">
-        <v>128340</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1">
-        <v>116000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
-        <v>3100</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>90</v>
       </c>
-      <c r="C37" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>294</v>
       </c>
-      <c r="C38" s="1">
-        <v>3880800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>180</v>
       </c>
-      <c r="C39" s="1">
-        <v>862200</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>15</v>
       </c>
-      <c r="C40" s="1">
-        <v>280500</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>90</v>
       </c>
-      <c r="C41" s="1">
-        <v>496800</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>142</v>
       </c>
-      <c r="C42" s="1">
-        <v>2186800</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>28</v>
       </c>
-      <c r="C43" s="1">
-        <v>135240</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>91</v>
       </c>
-      <c r="C44" s="1">
-        <v>410410</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>30</v>
       </c>
-      <c r="C45" s="1">
-        <v>38100</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>80</v>
       </c>
-      <c r="C46" s="1">
-        <v>322000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>70</v>
       </c>
-      <c r="C47" s="1">
-        <v>148400</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>180</v>
       </c>
-      <c r="C48" s="1">
-        <v>1188000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>7</v>
       </c>
-      <c r="C49" s="1">
-        <v>73150</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>56</v>
       </c>
-      <c r="C50" s="1">
-        <v>471240</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>637</v>
       </c>
-      <c r="C51" s="1">
-        <v>6936930</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>238</v>
       </c>
-      <c r="C52" s="1">
-        <v>766360</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>29</v>
       </c>
-      <c r="C53" s="1">
-        <v>2392500</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>88</v>
       </c>
-      <c r="C54" s="1">
-        <v>88000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>484</v>
       </c>
-      <c r="C55" s="1">
-        <v>1614140</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>324</v>
       </c>
-      <c r="C56" s="1">
-        <v>4811400</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>14</v>
       </c>
-      <c r="C57" s="1">
-        <v>29680</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>14</v>
       </c>
-      <c r="C58" s="1">
-        <v>100100</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>682</v>
       </c>
-      <c r="C59" s="1">
-        <v>5981140</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>786</v>
       </c>
-      <c r="C60" s="1">
-        <v>6052200</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>90</v>
       </c>
-      <c r="C61" s="1">
-        <v>831600</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>404</v>
       </c>
-      <c r="C62" s="1">
-        <v>2044240</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>28</v>
       </c>
-      <c r="C63" s="1">
-        <v>151340</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>56</v>
       </c>
-      <c r="C64" s="1">
-        <v>492800</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>14</v>
       </c>
-      <c r="C65" s="1">
-        <v>539000</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>796</v>
       </c>
-      <c r="C66" s="1">
-        <v>2471580</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>21</v>
       </c>
-      <c r="C67" s="1">
-        <v>107415</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>14</v>
       </c>
-      <c r="C68" s="1">
-        <v>119000</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>14</v>
       </c>
-      <c r="C69" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>396</v>
       </c>
-      <c r="C70" s="1">
-        <v>3484800</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>20</v>
       </c>
-      <c r="C71" s="1">
-        <v>57500</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="1">
-        <v>1050000</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>1</v>
       </c>
-      <c r="C73" s="1">
-        <v>630000</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>56</v>
       </c>
-      <c r="C74" s="1">
-        <v>296240</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1208,7 +989,7 @@
         <v>10148</v>
       </c>
       <c r="C75" s="1">
-        <v>75226952</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/83.xlsx
+++ b/dist/document/dest/2020/10/doctors/83.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,602 +399,722 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>42</v>
+        <v>154</v>
+      </c>
+      <c r="C3" s="1">
+        <v>531300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
-        <v>167</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amitriptyline (Elavil 25)</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B5" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>457400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>418880</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>28</v>
+        <v>252</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1801800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>Cenoxib (Celecoxib 200mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>230</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>306240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B10" s="1">
-        <v>392</v>
+        <v>158</v>
+      </c>
+      <c r="C10" s="1">
+        <v>499280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cenoxib (Celecoxib 200mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>126</v>
+        <v>262</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1786840</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cigenol</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>182</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1761540</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>294</v>
+        <v>218</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2158200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="1">
+        <v>366520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Coxwell (Etoricoxib 90mg)</v>
+        <v>Diprospan 1ml(Betamethasone Dipropionate) (j)</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>208</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3430</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Diprospan 1ml(Betamethasone Dipropionate) (j)</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="C17" s="1">
+        <v>172220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>21</v>
+        <v>258</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4115100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>124</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>135240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>277200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Dopegyt (Methyldopa 250mg)</v>
+        <v>Folacid (Acid Folic 5mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10660</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B23" s="1">
-        <v>316</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>77280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>40</v>
+        <v>324</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1155060</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B25" s="1">
-        <v>28</v>
+        <v>300</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Imdur 30mg (Isosorbide )</v>
       </c>
       <c r="B26" s="1">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>52220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B27" s="1">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>99820</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Folacid (Acid Folic 5mg)</v>
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
       </c>
       <c r="B28" s="1">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Glucophage 500mg (Metformin)</v>
+        <v>Larfix (Lornoxicam 8mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>28</v>
+        <v>294</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3880800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>242880</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>466</v>
+        <v>98</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1509200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B32" s="1">
-        <v>246</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>67620</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B33" s="1">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="C33" s="1">
+        <v>482570</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Medrol 4mg (Methylprednisolone)</v>
       </c>
       <c r="B34" s="1">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30480</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve">Kim Tiền Thảo </v>
+        <v>Methotrexat 2.5mg</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="C35" s="1">
+        <v>466900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C36" s="1">
+        <v>165600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>177100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>294</v>
+        <v>189</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1247400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Leolen Forte (CMP, UTP)</v>
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
       </c>
       <c r="B39" s="1">
-        <v>180</v>
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <v>426160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Opecerin (Diacerein 50mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="C40" s="1">
+        <v>471240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>90</v>
+        <v>476</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5183640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Oxabiti (Mecobalamine 500mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>142</v>
+        <v>256</v>
+      </c>
+      <c r="C42" s="1">
+        <v>824320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Palibone (Alendronic 70mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Palibone (Alendronic 70mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B45" s="1">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="1">
+        <v>56000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Methotrexat 2.5mg</v>
+        <v>Panangin (Magnesium, potassium)</v>
       </c>
       <c r="B46" s="1">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="C46" s="1">
+        <v>57820</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="B47" s="1">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="1">
+        <v>200100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="B48" s="1">
-        <v>180</v>
+        <v>147</v>
+      </c>
+      <c r="C48" s="1">
+        <v>490245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nykob (Olanzapin 10mg)</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B49" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13650</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Prepentin (Pregabalin 75mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>56</v>
+        <v>240</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3564000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Rabesime (Rabeprazole 20mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>637</v>
+        <v>613</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5376010</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
       </c>
       <c r="B52" s="1">
-        <v>238</v>
+        <v>442</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3403400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Palibone (Alendronic 70mg)</v>
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
       </c>
       <c r="B53" s="1">
-        <v>29</v>
+        <v>224</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1133440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>123200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Sagason (Clopidogrel 75mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>484</v>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v xml:space="preserve">Salonpas </v>
       </c>
       <c r="B56" s="1">
-        <v>324</v>
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>13700</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Primpéran (viên) (Metoclopramide 10mg)</v>
+        <v>Somexwell (Esomeprazole 20mg</v>
       </c>
       <c r="B57" s="1">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1023000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Strecalis (Eperisone 50mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>682</v>
+        <v>642</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1993410</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Surotadina (Rosuvastatin 10mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>786</v>
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>326700</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>90</v>
+        <v>308</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2710400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Verist (Betahistine 16mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>404</v>
+        <v>84</v>
+      </c>
+      <c r="C62" s="1">
+        <v>241500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Vocfor (Lornoxicam 4mg)</v>
       </c>
       <c r="B63" s="1">
         <v>28</v>
       </c>
+      <c r="C63" s="1">
+        <v>272888</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Voltaren 1% Emulgel 20g</v>
       </c>
       <c r="B64" s="1">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>69500</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
       </c>
       <c r="B65" s="1">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="C65" s="1">
+        <v>666540</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B66" s="1">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Sumiko (Paroxetine 20mg)</v>
-      </c>
-      <c r="B67" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Telfast 180mg (Fexofenadin)</v>
-      </c>
-      <c r="B68" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
-      </c>
-      <c r="B69" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
-      </c>
-      <c r="B70" s="1">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Verist (Betahistine 16mg)</v>
-      </c>
-      <c r="B71" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
-      </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Vớ Jobst Relief Gối (M)</v>
-      </c>
-      <c r="B73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
-      </c>
-      <c r="B74" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B75" s="1">
-        <v>10148</v>
-      </c>
-      <c r="C75" s="1">
-        <v>NaN</v>
+        <v>7820</v>
+      </c>
+      <c r="C66" s="1">
+        <v>57014143</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C75"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C66"/>
   </ignoredErrors>
 </worksheet>
 </file>